--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.9575</v>
+        <v>5.093999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.97570000000001</v>
+        <v>-21.93</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.451499999999995</v>
+        <v>5.942399999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.53909999999999</v>
+        <v>16.4664</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.41270000000002</v>
+        <v>-22.31950000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.27439999999999</v>
+        <v>-19.41299999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.062700000000004</v>
+        <v>4.259000000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.72389999999999</v>
+        <v>-21.86959999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>4.908900000000005</v>
+        <v>5.470200000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.100299999999998</v>
+        <v>5.061599999999997</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.662300000000011</v>
+        <v>8.690900000000006</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.622799999999999</v>
+        <v>4.973999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.08269999999999</v>
+        <v>16.18939999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6482</v>
+        <v>16.73889999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.7753</v>
+        <v>5.630000000000003</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.26270000000001</v>
+        <v>17.37460000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.175199999999998</v>
+        <v>5.307299999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.615</v>
+        <v>16.6801</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.60570000000002</v>
+        <v>18.52510000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.73239999999999</v>
+        <v>-21.68189999999998</v>
       </c>
       <c r="B69" t="n">
-        <v>5.568999999999996</v>
+        <v>5.742099999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.441900000000001</v>
+        <v>6.445900000000002</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.68540000000001</v>
+        <v>17.67700000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.47549999999999</v>
+        <v>-19.55049999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.91410000000001</v>
+        <v>-22.09120000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.668800000000001</v>
+        <v>5.631</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.3962</v>
+        <v>16.42789999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.232700000000008</v>
+        <v>8.390300000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
